--- a/SHOTMAN/末原進捗コスト表.xlsx
+++ b/SHOTMAN/末原進捗コスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447006\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\末原　銀次\Documents\GitHub\SHOTMAN\SHOTMAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CE03D4-E658-4031-A017-3FC48BFEDDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC4F168-4984-4724-B8B1-0B3C5F2CA019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13890" yWindow="2580" windowWidth="23190" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アルファ" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -263,10 +263,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　―　ダッシュ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　―　空中</t>
     <rPh sb="3" eb="5">
       <t>クウチュウ</t>
@@ -429,10 +425,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　―　ダッシュジャンプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　－　チャージショット</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -484,10 +476,6 @@
     <rPh sb="3" eb="7">
       <t>シボウエンシュツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ボス2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1062,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1102,8 +1090,8 @@
         <v>5</v>
       </c>
       <c r="H2">
-        <f>SUM(C3:C86)</f>
-        <v>120</v>
+        <f>SUM(C3:C78)</f>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1119,7 +1107,7 @@
         <v>7</v>
       </c>
       <c r="H3">
-        <f>SUMIF(E3:E86,"完了",C3:C86)</f>
+        <f>SUMIF(E3:E78,"完了",C3:C78)</f>
         <v>0</v>
       </c>
       <c r="I3" t="s">
@@ -1140,7 +1128,7 @@
       </c>
       <c r="H4" s="2">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="3">
         <f ca="1" xml:space="preserve"> H3 / H4</f>
@@ -1176,7 +1164,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45601</v>
+        <v>45609</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1223,11 +1211,11 @@
       </c>
       <c r="I9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H9)</f>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J9" s="3">
         <f ca="1">($H$2 - $H$3) / I9</f>
-        <v>3.5294117647058822</v>
+        <v>4.0357142857142856</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1248,16 +1236,16 @@
       </c>
       <c r="I10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H10)</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J10" s="3">
         <f ca="1">($H$2 - $H$3) / I10</f>
-        <v>2.2222222222222223</v>
+        <v>2.3541666666666665</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -1273,16 +1261,16 @@
       </c>
       <c r="I11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H11)</f>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J11" s="3">
         <f ca="1">($H$2 - $H$3) / I11</f>
-        <v>1.8461538461538463</v>
+        <v>1.9152542372881356</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -1308,7 +1296,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="17"/>
       <c r="G14" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H14" s="1">
         <v>45631</v>
@@ -1316,7 +1304,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="7">
         <v>0.5</v>
@@ -1332,7 +1320,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="7">
         <v>4</v>
@@ -1340,7 +1328,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="G16" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H16" s="1">
         <v>45306</v>
@@ -1348,7 +1336,7 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
@@ -1356,10 +1344,10 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="G17" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -1402,7 +1390,7 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
         <v>0.5</v>
@@ -1412,7 +1400,7 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="7">
         <v>0.5</v>
@@ -1422,30 +1410,30 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="7" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C25" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C26" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -1462,37 +1450,35 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="7" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="7" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0.5</v>
-      </c>
+      <c r="B30" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C31" s="7">
         <v>0.5</v>
@@ -1501,26 +1487,28 @@
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="7"/>
+      <c r="B32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.5</v>
+      </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="7" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C33" s="7">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="7" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C34" s="7">
         <v>0.5</v>
@@ -1529,46 +1517,44 @@
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="7">
-        <v>3</v>
-      </c>
+      <c r="B35" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="7" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="7"/>
+      <c r="B37" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1.5</v>
+      </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1.5</v>
-      </c>
+      <c r="B38" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="7" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="C39" s="7">
         <v>1.5</v>
@@ -1577,44 +1563,46 @@
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="7"/>
+      <c r="B40" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1.5</v>
+      </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="7">
-        <v>1.5</v>
-      </c>
+      <c r="B41" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="7" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="C42" s="7">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="7"/>
+      <c r="B43" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="7">
+        <v>2</v>
+      </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="7" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C44" s="7">
         <v>0.5</v>
@@ -1624,7 +1612,7 @@
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="7" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C45" s="7">
         <v>2</v>
@@ -1634,7 +1622,7 @@
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C46" s="7">
         <v>0.5</v>
@@ -1643,94 +1631,94 @@
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="7">
-        <v>2</v>
-      </c>
+      <c r="B47" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C48" s="7">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="7"/>
+      <c r="B49" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="7">
+        <v>2</v>
+      </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="7" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C50" s="7">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="7">
-        <v>2</v>
-      </c>
+      <c r="B51" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C52" s="7">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C53" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" s="7" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C54" s="7">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="7"/>
+      <c r="B55" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="7">
+        <v>3</v>
+      </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="7" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C56" s="7">
         <v>2</v>
@@ -1739,298 +1727,220 @@
       <c r="E56" s="7"/>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="7">
-        <v>2</v>
-      </c>
+      <c r="B57" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="7" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="C58" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="7"/>
+      <c r="B59" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="7">
+        <v>1</v>
+      </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="7" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C60" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C61" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="7">
-        <v>3</v>
-      </c>
+      <c r="B62" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C63" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="7" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C64" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65" s="7"/>
+      <c r="B65" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="7">
+        <v>2</v>
+      </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C66" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="7" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C67" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="7">
-        <v>2</v>
-      </c>
+      <c r="B68" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C69" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="7"/>
+      <c r="B70" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="7">
+        <v>1</v>
+      </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C71" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="7">
-        <v>4</v>
-      </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
+      <c r="B72" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="8">
+        <v>3</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" s="7">
-        <v>2</v>
-      </c>
+      <c r="B73" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C74" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="7" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C75" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C76" s="7"/>
+      <c r="B76" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="7">
+        <v>2</v>
+      </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C77" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="7" t="s">
-        <v>51</v>
+      <c r="B78" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="C78" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="2:7">
-      <c r="B79" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C79" s="7">
-        <v>1</v>
-      </c>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-    </row>
-    <row r="80" spans="2:7">
-      <c r="B80" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C80" s="8">
-        <v>3</v>
-      </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="B81" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-    </row>
-    <row r="82" spans="2:5">
-      <c r="B82" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C82" s="7">
-        <v>2</v>
-      </c>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="B83" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C83" s="7">
-        <v>1</v>
-      </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C84" s="7">
-        <v>2</v>
-      </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-    </row>
-    <row r="85" spans="2:5">
-      <c r="B85" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C85" s="7">
-        <v>2</v>
-      </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-    </row>
-    <row r="86" spans="2:5">
-      <c r="B86" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C86" s="7">
-        <v>2</v>
-      </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2070,12 +1980,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2322,21 +2235,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2361,12 +2274,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SHOTMAN/末原進捗コスト表.xlsx
+++ b/SHOTMAN/末原進捗コスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\末原　銀次\Documents\GitHub\SHOTMAN\SHOTMAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447006\Documents\GitHub\SHOTMAN\SHOTMAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC4F168-4984-4724-B8B1-0B3C5F2CA019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC0362A-025F-41C9-8CF2-D94206BA6AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13890" yWindow="2580" windowWidth="23190" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="765" windowWidth="22845" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アルファ" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -493,17 +493,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　ー　ステージセレクト画面</t>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ー　ランキング画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　ー　ゲーム画面</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -517,23 +506,6 @@
   </si>
   <si>
     <t>　―　ギミック2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　―　ギミック3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・地を這うエネミー2種</t>
-    <rPh sb="1" eb="2">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シュ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -552,6 +524,33 @@
     <t>１月31</t>
     <rPh sb="1" eb="2">
       <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・地を這うエネミー</t>
+    <rPh sb="1" eb="2">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・空を飛ぶエネミー</t>
+    <rPh sb="1" eb="2">
+      <t>ソラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -744,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -768,6 +767,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1050,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1090,8 +1092,8 @@
         <v>5</v>
       </c>
       <c r="H2">
-        <f>SUM(C3:C78)</f>
-        <v>113</v>
+        <f>SUM(C3:C75)</f>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1107,8 +1109,8 @@
         <v>7</v>
       </c>
       <c r="H3">
-        <f>SUMIF(E3:E78,"完了",C3:C78)</f>
-        <v>0</v>
+        <f>SUMIF(E3:E75,"完了",C3:C75)</f>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
@@ -1128,11 +1130,11 @@
       </c>
       <c r="H4" s="2">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3">
         <f ca="1" xml:space="preserve"> H3 / H4</f>
-        <v>0</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1164,7 +1166,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45609</v>
+        <v>45615</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1211,11 +1213,11 @@
       </c>
       <c r="I9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H9)</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J9" s="3">
         <f ca="1">($H$2 - $H$3) / I9</f>
-        <v>4.0357142857142856</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1236,11 +1238,11 @@
       </c>
       <c r="I10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H10)</f>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J10" s="3">
         <f ca="1">($H$2 - $H$3) / I10</f>
-        <v>2.3541666666666665</v>
+        <v>2.3636363636363638</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1261,11 +1263,11 @@
       </c>
       <c r="I11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H11)</f>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J11" s="3">
         <f ca="1">($H$2 - $H$3) / I11</f>
-        <v>1.9152542372881356</v>
+        <v>1.8909090909090909</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1296,7 +1298,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="17"/>
       <c r="G14" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H14" s="1">
         <v>45631</v>
@@ -1328,7 +1330,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="G16" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H16" s="1">
         <v>45306</v>
@@ -1344,10 +1346,10 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="G17" s="21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -1376,7 +1378,9 @@
         <v>0.5</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="E20" s="23" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="7" t="s">
@@ -1386,7 +1390,9 @@
         <v>0.5</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="E21" s="23" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="7" t="s">
@@ -1518,7 +1524,7 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1529,7 +1535,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -1539,14 +1545,14 @@
         <v>70</v>
       </c>
       <c r="C37" s="7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1557,7 +1563,7 @@
         <v>29</v>
       </c>
       <c r="C39" s="7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -1567,7 +1573,7 @@
         <v>70</v>
       </c>
       <c r="C40" s="7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -1632,7 +1638,7 @@
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1640,7 +1646,7 @@
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48" s="7">
         <v>2</v>
@@ -1650,7 +1656,7 @@
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49" s="7">
         <v>2</v>
@@ -1659,26 +1665,26 @@
       <c r="E49" s="7"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="7">
-        <v>2</v>
-      </c>
+      <c r="B50" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="7"/>
+      <c r="B51" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="7">
+        <v>6</v>
+      </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="7" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C52" s="7">
         <v>6</v>
@@ -1688,17 +1694,17 @@
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C53" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C54" s="7">
         <v>3</v>
@@ -1708,35 +1714,35 @@
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C55" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="7">
-        <v>2</v>
-      </c>
+      <c r="B56" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="7"/>
+      <c r="B57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1</v>
+      </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C58" s="7">
         <v>1</v>
@@ -1746,17 +1752,17 @@
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C59" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C60" s="7">
         <v>2</v>
@@ -1765,36 +1771,36 @@
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="7">
-        <v>2</v>
-      </c>
+      <c r="B61" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="7"/>
+      <c r="B62" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="7">
+        <v>2</v>
+      </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="7" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C63" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="7" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C64" s="7">
         <v>4</v>
@@ -1803,98 +1809,98 @@
       <c r="E64" s="7"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="7">
-        <v>2</v>
-      </c>
+      <c r="B65" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C66" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="7" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C67" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" s="7"/>
+      <c r="B68" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="7">
+        <v>1</v>
+      </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" s="7">
-        <v>1</v>
-      </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
+      <c r="B69" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="8">
+        <v>3</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C70" s="7">
-        <v>1</v>
-      </c>
+      <c r="B70" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C71" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C72" s="8">
-        <v>3</v>
-      </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
+      <c r="B72" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="7">
+        <v>1</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C73" s="7"/>
+      <c r="B73" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="7">
+        <v>2</v>
+      </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C74" s="7">
         <v>2</v>
@@ -1903,44 +1909,14 @@
       <c r="E74" s="7"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="7" t="s">
-        <v>55</v>
+      <c r="B75" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="C75" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
-    </row>
-    <row r="76" spans="2:7">
-      <c r="B76" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" s="7">
-        <v>2</v>
-      </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-    </row>
-    <row r="77" spans="2:7">
-      <c r="B77" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C77" s="7">
-        <v>2</v>
-      </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-    </row>
-    <row r="78" spans="2:7">
-      <c r="B78" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C78" s="7">
-        <v>2</v>
-      </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1980,15 +1956,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2235,21 +2208,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2274,9 +2247,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SHOTMAN/末原進捗コスト表.xlsx
+++ b/SHOTMAN/末原進捗コスト表.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447006\Documents\GitHub\SHOTMAN\SHOTMAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC0362A-025F-41C9-8CF2-D94206BA6AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E3DA74-806F-4E38-9309-7C865F0B835D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="765" windowWidth="22845" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="510" windowWidth="22845" windowHeight="14010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="アルファ" sheetId="1" r:id="rId1"/>
-    <sheet name="ベータ" sheetId="2" r:id="rId2"/>
-    <sheet name="マスタ" sheetId="3" r:id="rId3"/>
+    <sheet name="1125元データ" sheetId="4" r:id="rId1"/>
+    <sheet name="概要" sheetId="5" r:id="rId2"/>
+    <sheet name="アルファ" sheetId="1" r:id="rId3"/>
+    <sheet name="ベータ" sheetId="2" r:id="rId4"/>
+    <sheet name="マスタ" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">アルファ!$B$2:$H$61</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
-  <si>
-    <t>1コスト:3時間 (1日は基本2コスト)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="177">
   <si>
     <t>アルファ</t>
     <phoneticPr fontId="1"/>
@@ -117,16 +119,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・アルファ素材集め</t>
-    <rPh sb="5" eb="7">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
       <t>カイシビ</t>
@@ -425,10 +417,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　－　チャージショット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　－　ボス武器1</t>
     <rPh sb="5" eb="7">
       <t>ブキ</t>
@@ -551,6 +539,561 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度について</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S…実装が必須</t>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A…重要な要素</t>
+    <rPh sb="2" eb="4">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B…なくても問題ないがあるといい</t>
+    <rPh sb="6" eb="8">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C…なくても問題ない</t>
+    <rPh sb="6" eb="8">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロト</t>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>β</t>
+  </si>
+  <si>
+    <t>・素材集め</t>
+    <rPh sb="1" eb="3">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスター</t>
+  </si>
+  <si>
+    <t>1コスト:3時間 (1日は基本2コスト)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルドテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材集め</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+  </si>
+  <si>
+    <t>エネミーbase</t>
+  </si>
+  <si>
+    <t>地を這うエネミー</t>
+    <rPh sb="0" eb="1">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空を飛ぶエネミー</t>
+    <rPh sb="0" eb="1">
+      <t>ソラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス1</t>
+  </si>
+  <si>
+    <t>ステージギミック</t>
+  </si>
+  <si>
+    <t>マップ</t>
+  </si>
+  <si>
+    <t>音処理</t>
+    <rPh sb="0" eb="3">
+      <t>オトショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>UX</t>
+  </si>
+  <si>
+    <t>エフェクト</t>
+  </si>
+  <si>
+    <t>エフェクト実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標回転と拡大</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI素材</t>
+    <rPh sb="2" eb="4">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ素材</t>
+    <rPh sb="3" eb="5">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>球と球の当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矩形の当たり判定</t>
+    <rPh sb="0" eb="2">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>床の当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁の当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空中</t>
+    <rPh sb="0" eb="2">
+      <t>クウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス武器1</t>
+    <rPh sb="2" eb="4">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス武器2</t>
+    <rPh sb="2" eb="4">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被弾</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発見</t>
+    <rPh sb="0" eb="2">
+      <t>ハッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被弾</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡演出</t>
+    <rPh sb="0" eb="4">
+      <t>シボウエンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギミック1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギミック2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップスクロール(生成)</t>
+    <rPh sb="9" eb="11">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ設計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置データの保存</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置データの読み込み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM再生</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音量調整の処理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプション画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソル移動</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定処理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト再生</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト停止</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー操作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE再生</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス設計</t>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリ設計</t>
+    <rPh sb="5" eb="7">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業工数について</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単位は人日</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニンニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1人日＝8時間</t>
+    <rPh sb="1" eb="3">
+      <t>ニンニチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最小＝0.25人日(2時間)</t>
+    <rPh sb="0" eb="2">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニンニチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※0.25(2時間)→0.5(4時間)→0.75(6時間)→1(8時間)</t>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業工数(人日)</t>
+    <rPh sb="0" eb="4">
+      <t>サギョウコウスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業中</t>
+  </si>
+  <si>
+    <t>未着手</t>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>クラスの設計</t>
+    <rPh sb="4" eb="6">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリの設計</t>
+    <rPh sb="6" eb="8">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルドの確認</t>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -563,7 +1106,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,8 +1137,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,6 +1234,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -743,7 +1315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -772,6 +1344,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1051,881 +1643,2855 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670BC003-9E8A-4EE9-A0BA-F4BBD4E95F1D}">
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="6.75" customWidth="1"/>
-    <col min="2" max="2" width="37.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
+    <col min="9" max="9" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="12.25" customWidth="1"/>
+    <col min="11" max="11" width="19.625" customWidth="1"/>
+    <col min="12" max="12" width="15.75" customWidth="1"/>
+    <col min="13" max="13" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="J2">
+        <f>SUM(E3:E74)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H2">
-        <f>SUM(C3:C75)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="7"/>
+      <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7">
-        <v>4</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="7"/>
-      <c r="G3" s="10" t="s">
+      <c r="J3">
+        <f>SUMIF(G3:G74,"完了",E3:E74)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>7</v>
       </c>
-      <c r="H3">
-        <f>SUMIF(E3:E75,"完了",C3:C75)</f>
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="7">
+        <v>8</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="7"/>
+      <c r="I4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7">
-        <v>8</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="7"/>
-      <c r="G4" s="11" t="s">
+      <c r="J4" s="2">
+        <f ca="1">NETWORKDAYS(J5,J6)</f>
+        <v>17</v>
+      </c>
+      <c r="K4" s="3">
+        <f ca="1" xml:space="preserve"> J3 / J4</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="7"/>
+      <c r="I5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="2">
-        <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>13</v>
-      </c>
-      <c r="I4" s="3">
-        <f ca="1" xml:space="preserve"> H3 / H4</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="7"/>
-      <c r="G5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <f>DATE(2024,11,1)</f>
         <v>45597</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="7"/>
+      <c r="I6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="7"/>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7">
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="7"/>
-      <c r="G6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1">
-        <f ca="1">TODAY()</f>
-        <v>45615</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="7"/>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="7"/>
+      <c r="I9" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="7"/>
-      <c r="G9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="J9" s="1">
         <f>DATE(2024,12,20)</f>
         <v>45646</v>
       </c>
-      <c r="I9" s="2">
-        <f ca="1">NETWORKDAYS(TODAY(),H9)</f>
-        <v>24</v>
-      </c>
-      <c r="J9" s="3">
-        <f ca="1">($H$2 - $H$3) / I9</f>
-        <v>4.333333333333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="2">
+        <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
+        <v>20</v>
+      </c>
+      <c r="L9" s="3">
+        <f ca="1">($J$2 - $J$3) / K9</f>
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="B10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="7">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="7"/>
-      <c r="G10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="F10" s="14"/>
+      <c r="G10" s="7"/>
+      <c r="I10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="1">
         <f>DATE(2025,1,17)</f>
         <v>45674</v>
       </c>
-      <c r="I10" s="2">
-        <f ca="1">NETWORKDAYS(TODAY(),H10)</f>
-        <v>44</v>
-      </c>
-      <c r="J10" s="3">
-        <f ca="1">($H$2 - $H$3) / I10</f>
-        <v>2.3636363636363638</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="2">
+        <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
+        <v>40</v>
+      </c>
+      <c r="L10" s="3">
+        <f ca="1">($J$2 - $J$3) / K10</f>
+        <v>2.5750000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="B11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="7">
+        <v>57</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="7"/>
-      <c r="G11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="F11" s="14"/>
+      <c r="G11" s="7"/>
+      <c r="I11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1">
         <f>DATE(2025,2,3)</f>
         <v>45691</v>
       </c>
-      <c r="I11" s="2">
-        <f ca="1">NETWORKDAYS(TODAY(),H11)</f>
+      <c r="K11" s="2">
+        <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
+        <v>51</v>
+      </c>
+      <c r="L11" s="3">
+        <f ca="1">($J$2 - $J$3) / K11</f>
+        <v>2.0196078431372548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="17"/>
+      <c r="I14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="1">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="I15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="I16" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="1">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="7">
+        <v>4</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="I17" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="I22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="I23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="I24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="7">
+        <v>3</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="7">
+        <v>2</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="7">
+        <v>2</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="7">
+        <v>2</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="7">
+        <v>2</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="7">
+        <v>6</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="7">
+        <v>6</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7">
+        <v>3</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7">
+        <v>3</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="7">
+        <v>2</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="7">
+        <v>1</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="7">
+        <v>1</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="7">
+        <v>2</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="7">
+        <v>2</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="7">
+        <v>2</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="7">
+        <v>4</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="7">
+        <v>4</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="7">
+        <v>1</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="7">
+        <v>1</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" s="7">
+        <v>1</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" s="8">
+        <v>3</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="7">
+        <v>2</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" s="7">
+        <v>1</v>
+      </c>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="7">
+        <v>2</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="3">
-        <f ca="1">($H$2 - $H$3) / I11</f>
-        <v>1.8909090909090909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="C73" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" s="7">
+        <v>2</v>
+      </c>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="7">
+        <v>2</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D74" xr:uid="{4D422926-FD38-4AC9-BE25-2B9A4A99CD2D}">
+      <formula1>"プロト,α,β,マスター"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C74" xr:uid="{AAC26CA6-7D8F-4412-93D7-2883245352C5}">
+      <formula1>"S,A,B,C"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F84D2E1-28C6-45A9-8B2A-E508054AC63F}">
+  <dimension ref="B2:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <f>SUM(アルファ!F3:F61)</f>
+        <v>41.75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <f>SUMIF(アルファ!H3:H61,"完了",アルファ!F3:F61)</f>
+        <v>1.25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <f ca="1">NETWORKDAYS(C5,C6)</f>
+        <v>17</v>
+      </c>
+      <c r="D4" s="3">
+        <f ca="1" xml:space="preserve"> C3 / C4</f>
+        <v>7.3529411764705885E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <f>DATE(2024,11,1)</f>
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45621</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <f>DATE(2024,12,20)</f>
+        <v>45646</v>
+      </c>
+      <c r="D9" s="2">
+        <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
+        <v>20</v>
+      </c>
+      <c r="E9" s="3">
+        <f ca="1">($C$2 - $C$3) / D9</f>
+        <v>2.0249999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <f>DATE(2025,1,17)</f>
+        <v>45674</v>
+      </c>
+      <c r="D10" s="2">
+        <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
+        <v>40</v>
+      </c>
+      <c r="E10" s="3">
+        <f ca="1">($C$2 - $C$3) / D10</f>
+        <v>1.0125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1">
+        <f>DATE(2025,2,3)</f>
+        <v>45691</v>
+      </c>
+      <c r="D11" s="2">
+        <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
+        <v>51</v>
+      </c>
+      <c r="E11" s="3">
+        <f ca="1">($C$2 - $C$3) / D11</f>
+        <v>0.79411764705882348</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="B2:J61"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2">
+        <f>SUBTOTAL(9,F:F)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" hidden="1">
+      <c r="B3" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" hidden="1">
+      <c r="B4" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="26">
+        <v>3</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" hidden="1">
+      <c r="B5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" hidden="1">
+      <c r="B6" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" hidden="1">
+      <c r="B7" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" hidden="1">
+      <c r="B9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" hidden="1">
+      <c r="B11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="7">
+        <v>102</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" hidden="1">
+      <c r="B17" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" hidden="1">
+      <c r="B18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" hidden="1">
+      <c r="B19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" hidden="1">
+      <c r="B20" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" hidden="1">
+      <c r="B21" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" hidden="1">
+      <c r="B22" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="26">
         <v>0.5</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="17"/>
-      <c r="G14" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="1">
-        <v>45631</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="G22" s="7"/>
+      <c r="H22" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" hidden="1">
+      <c r="B23" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="26">
         <v>0.5</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="G15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="G16" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="1">
-        <v>45306</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="7">
-        <v>4</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="G17" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="26" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="B24" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="26" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="B25" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="26" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="B26" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="26" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="B27" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="26" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="B28" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="26" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="B29" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="26" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="26" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="7">
+      <c r="B31" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="26">
         <v>0.5</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="26" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="7">
+      <c r="B32" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="26">
         <v>0.5</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="7">
+      <c r="G32" s="7"/>
+      <c r="H32" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="26">
         <v>0.5</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="G33" s="7"/>
+      <c r="H33" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" hidden="1">
       <c r="B35" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="7">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="7">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="2:5">
+        <v>107</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" hidden="1">
+      <c r="B37" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" hidden="1">
       <c r="B38" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="7">
-        <v>1</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="7">
-        <v>1</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="2:5">
+        <v>107</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" hidden="1">
+      <c r="B39" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" hidden="1">
+      <c r="B40" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
       <c r="B41" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="7">
+        <v>109</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="26">
+        <v>2.25</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="26">
+        <v>2.25</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" hidden="1">
+      <c r="B43" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" hidden="1">
+      <c r="B44" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" hidden="1">
+      <c r="B46" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="26">
         <v>0.5</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="7">
-        <v>2</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="7">
+      <c r="G46" s="7"/>
+      <c r="H46" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" hidden="1">
+      <c r="B47" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" s="26">
         <v>0.5</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="7">
-        <v>2</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="7">
+      <c r="G47" s="7"/>
+      <c r="H47" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" hidden="1">
+      <c r="B48" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" hidden="1">
+      <c r="B49" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" hidden="1">
+      <c r="B50" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" hidden="1">
+      <c r="B51" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" hidden="1">
+      <c r="B52" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" hidden="1">
+      <c r="B53" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" s="26">
         <v>0.5</v>
       </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="7">
-        <v>2</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="7">
-        <v>2</v>
-      </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="B51" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="7">
-        <v>6</v>
-      </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="7">
-        <v>6</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="7">
-        <v>3</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="7">
-        <v>3</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="7">
-        <v>2</v>
-      </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="2:5">
+      <c r="G53" s="7"/>
+      <c r="H53" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" hidden="1">
+      <c r="B54" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" hidden="1">
+      <c r="B55" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F55" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" hidden="1">
       <c r="B56" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" s="7">
-        <v>1</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="7">
-        <v>1</v>
-      </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" s="7">
-        <v>2</v>
-      </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="7">
-        <v>2</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="2:5">
+        <v>112</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" s="27">
+        <v>1.25</v>
+      </c>
+      <c r="G56" s="8"/>
+      <c r="H56" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="2:10" hidden="1">
+      <c r="B57" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F57" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="2:10" hidden="1">
+      <c r="B58" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="2:10" hidden="1">
+      <c r="B59" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F59" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" hidden="1">
+      <c r="B60" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F60" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" hidden="1">
       <c r="B61" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C62" s="7">
-        <v>2</v>
-      </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="B63" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="7">
-        <v>4</v>
-      </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="B64" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" s="7">
-        <v>4</v>
-      </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="2:7">
-      <c r="B65" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="2:7">
-      <c r="B66" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" s="7">
-        <v>1</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C67" s="7">
-        <v>1</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="2:7">
-      <c r="B68" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C68" s="7">
-        <v>1</v>
-      </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="2:7">
-      <c r="B69" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69" s="8">
-        <v>3</v>
-      </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="2:7">
-      <c r="B70" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="2:7">
-      <c r="B71" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C71" s="7">
-        <v>2</v>
-      </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="2:7">
-      <c r="B72" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C72" s="7">
-        <v>1</v>
-      </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="2:7">
-      <c r="B73" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C73" s="7">
-        <v>2</v>
-      </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-    </row>
-    <row r="74" spans="2:7">
-      <c r="B74" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C74" s="7">
-        <v>2</v>
-      </c>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-    </row>
-    <row r="75" spans="2:7">
-      <c r="B75" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C75" s="7">
-        <v>2</v>
-      </c>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F61" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="26" t="s">
+        <v>172</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="B2:H61" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="プロト"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="作業中"/>
+        <filter val="未着手"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D61" xr:uid="{454E7D05-2AAB-4E64-A8B3-AF0965AEE79C}">
+      <formula1>"S,A,B,C"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E61" xr:uid="{562FCF84-6947-4222-9C48-5F079C4953DE}">
+      <formula1>"プロト,α,β,マスター"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H61" xr:uid="{314D6C1B-1D5B-46EA-8722-41E45A851746}">
+      <formula1>"未着手,作業中,完了"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA4416D-9062-4DAF-A047-57AB4A8BE771}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1940,7 +4506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3D2C22-999A-42D4-BD4F-8D4FC0E5041D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1956,12 +4522,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2208,21 +4777,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2247,12 +4816,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SHOTMAN/末原進捗コスト表.xlsx
+++ b/SHOTMAN/末原進捗コスト表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447006\Documents\GitHub\SHOTMAN\SHOTMAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEXTs\OneDrive\ドキュメント\SHOTMAN\SHOTMAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E3DA74-806F-4E38-9309-7C865F0B835D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7706EC9-3D64-4382-9E78-74276DEB3DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="510" windowWidth="22845" windowHeight="14010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="1845" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1125元データ" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="マスタ" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">アルファ!$B$2:$H$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">アルファ!$B$2:$H$59</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="176">
   <si>
     <t>アルファ</t>
     <phoneticPr fontId="1"/>
@@ -914,14 +914,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>配置データの保存</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>配置データの読み込み</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マップ実装</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1095,6 +1087,10 @@
     <rPh sb="4" eb="6">
       <t>カクニン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1739,11 +1735,11 @@
       </c>
       <c r="J4" s="2">
         <f ca="1">NETWORKDAYS(J5,J6)</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="K4" s="3">
         <f ca="1" xml:space="preserve"> J3 / J4</f>
-        <v>5.8823529411764705E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1787,7 +1783,7 @@
       </c>
       <c r="J6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45621</v>
+        <v>45635</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1852,11 +1848,11 @@
       </c>
       <c r="K9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L9" s="3">
         <f ca="1">($J$2 - $J$3) / K9</f>
-        <v>5.15</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1883,11 +1879,11 @@
       </c>
       <c r="K10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L10" s="3">
         <f ca="1">($J$2 - $J$3) / K10</f>
-        <v>2.5750000000000002</v>
+        <v>3.4333333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1914,11 +1910,11 @@
       </c>
       <c r="K11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L11" s="3">
         <f ca="1">($J$2 - $J$3) / K11</f>
-        <v>2.0196078431372548</v>
+        <v>2.5121951219512195</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2962,7 +2958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F84D2E1-28C6-45A9-8B2A-E508054AC63F}">
   <dimension ref="B2:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2980,8 +2976,8 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <f>SUM(アルファ!F3:F61)</f>
-        <v>41.75</v>
+        <f>SUM(アルファ!F3:F59)</f>
+        <v>39.25</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -2989,8 +2985,8 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <f>SUMIF(アルファ!H3:H61,"完了",アルファ!F3:F61)</f>
-        <v>1.25</v>
+        <f>SUMIF(アルファ!H3:H59,"完了",アルファ!F3:F59)</f>
+        <v>2.25</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3002,11 +2998,11 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
-        <v>7.3529411764705885E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -3024,7 +3020,7 @@
       </c>
       <c r="C6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45621</v>
+        <v>45635</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -3045,11 +3041,11 @@
       </c>
       <c r="D9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>2.0249999999999999</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -3062,11 +3058,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>1.0125</v>
+        <v>1.2333333333333334</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -3079,11 +3075,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$2 - $C$3) / D11</f>
-        <v>0.79411764705882348</v>
+        <v>0.90243902439024393</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -3145,27 +3141,27 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3177,10 +3173,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="B2:J61"/>
+  <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3201,7 +3197,7 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>0</v>
@@ -3213,7 +3209,7 @@
         <v>93</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>2</v>
@@ -3223,15 +3219,15 @@
       </c>
       <c r="J2">
         <f>SUBTOTAL(9,F:F)</f>
-        <v>15</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="3" spans="2:10" hidden="1">
       <c r="B3" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>90</v>
@@ -3244,15 +3240,15 @@
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:10" hidden="1">
       <c r="B4" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>90</v>
@@ -3265,7 +3261,7 @@
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="2:10" hidden="1">
@@ -3286,7 +3282,7 @@
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="2:10" hidden="1">
@@ -3307,7 +3303,7 @@
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="2:10" hidden="1">
@@ -3328,7 +3324,7 @@
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -3349,7 +3345,7 @@
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="26" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="2:10" hidden="1">
@@ -3370,10 +3366,10 @@
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" hidden="1">
       <c r="B10" s="12" t="s">
         <v>101</v>
       </c>
@@ -3391,7 +3387,7 @@
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="2:10" hidden="1">
@@ -3412,10 +3408,10 @@
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" hidden="1">
       <c r="B12" s="12" t="s">
         <v>102</v>
       </c>
@@ -3433,7 +3429,7 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -3454,10 +3450,10 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" hidden="1">
       <c r="B14" s="12" t="s">
         <v>102</v>
       </c>
@@ -3475,10 +3471,10 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" hidden="1">
       <c r="B15" s="12" t="s">
         <v>102</v>
       </c>
@@ -3496,7 +3492,7 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -3517,10 +3513,10 @@
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="12" t="s">
         <v>103</v>
       </c>
@@ -3538,10 +3534,10 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="12" t="s">
         <v>103</v>
       </c>
@@ -3559,10 +3555,10 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="12" t="s">
         <v>103</v>
       </c>
@@ -3580,10 +3576,10 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="12" t="s">
         <v>103</v>
       </c>
@@ -3601,10 +3597,10 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="12" t="s">
         <v>103</v>
       </c>
@@ -3622,7 +3618,7 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="2:8" hidden="1">
@@ -3643,7 +3639,7 @@
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="2:8" hidden="1">
@@ -3664,7 +3660,7 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -3685,10 +3681,10 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" hidden="1">
       <c r="B25" s="12" t="s">
         <v>103</v>
       </c>
@@ -3706,10 +3702,10 @@
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" hidden="1">
       <c r="B26" s="12" t="s">
         <v>104</v>
       </c>
@@ -3727,10 +3723,10 @@
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" hidden="1">
       <c r="B27" s="12" t="s">
         <v>104</v>
       </c>
@@ -3748,10 +3744,10 @@
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" hidden="1">
       <c r="B28" s="12" t="s">
         <v>104</v>
       </c>
@@ -3769,10 +3765,10 @@
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" hidden="1">
       <c r="B29" s="12" t="s">
         <v>104</v>
       </c>
@@ -3790,10 +3786,10 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" hidden="1">
       <c r="B30" s="12" t="s">
         <v>105</v>
       </c>
@@ -3811,10 +3807,10 @@
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" hidden="1">
       <c r="B31" s="12" t="s">
         <v>105</v>
       </c>
@@ -3832,10 +3828,10 @@
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" hidden="1">
       <c r="B32" s="12" t="s">
         <v>106</v>
       </c>
@@ -3853,10 +3849,10 @@
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" hidden="1">
       <c r="B33" s="12" t="s">
         <v>106</v>
       </c>
@@ -3874,10 +3870,10 @@
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" hidden="1">
       <c r="B34" s="12" t="s">
         <v>107</v>
       </c>
@@ -3895,7 +3891,7 @@
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="2:8" hidden="1">
@@ -3916,10 +3912,10 @@
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" hidden="1">
       <c r="B36" s="12" t="s">
         <v>107</v>
       </c>
@@ -3937,7 +3933,7 @@
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="2:8" hidden="1">
@@ -3958,7 +3954,7 @@
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="2:8" hidden="1">
@@ -3979,7 +3975,7 @@
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="2:8" hidden="1">
@@ -4000,7 +3996,7 @@
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="2:8" hidden="1">
@@ -4021,10 +4017,10 @@
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" hidden="1">
       <c r="B41" s="12" t="s">
         <v>109</v>
       </c>
@@ -4042,10 +4038,10 @@
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" hidden="1">
       <c r="B42" s="12" t="s">
         <v>109</v>
       </c>
@@ -4063,7 +4059,7 @@
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="2:8" hidden="1">
@@ -4073,52 +4069,60 @@
       <c r="C43" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
+      <c r="D43" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>94</v>
+      </c>
       <c r="F43" s="26">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="2:8" hidden="1">
       <c r="B44" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
+      <c r="D44" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>95</v>
+      </c>
       <c r="F44" s="26">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" hidden="1">
       <c r="B45" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D45" s="26" t="s">
         <v>90</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F45" s="26">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="2:8" hidden="1">
@@ -4126,20 +4130,20 @@
         <v>110</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F46" s="26">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="2:8" hidden="1">
@@ -4147,46 +4151,46 @@
         <v>110</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D47" s="26" t="s">
         <v>90</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F47" s="26">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="2:8" hidden="1">
       <c r="B48" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>150</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F48" s="26">
         <v>0.75</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="2:10" hidden="1">
       <c r="B49" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>151</v>
@@ -4195,14 +4199,14 @@
         <v>90</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49" s="26">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="2:10" hidden="1">
@@ -4216,19 +4220,19 @@
         <v>90</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F50" s="26">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="2:10" hidden="1">
       <c r="B51" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>153</v>
@@ -4240,16 +4244,16 @@
         <v>95</v>
       </c>
       <c r="F51" s="26">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="2:10" hidden="1">
       <c r="B52" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>154</v>
@@ -4258,14 +4262,14 @@
         <v>90</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F52" s="26">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="2:10" hidden="1">
@@ -4286,70 +4290,72 @@
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="2:10" hidden="1">
       <c r="B54" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F54" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="26" t="s">
-        <v>172</v>
-      </c>
+      <c r="C54" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="27">
+        <v>1.25</v>
+      </c>
+      <c r="G54" s="8"/>
+      <c r="H54" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="J54" s="1"/>
     </row>
     <row r="55" spans="2:10" hidden="1">
       <c r="B55" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F55" s="26">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="26" t="s">
-        <v>172</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="J55" s="1"/>
     </row>
     <row r="56" spans="2:10" hidden="1">
       <c r="B56" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F56" s="27">
-        <v>1.25</v>
-      </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="27" t="s">
-        <v>172</v>
+      <c r="F56" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="J56" s="1"/>
     </row>
@@ -4358,7 +4364,7 @@
         <v>113</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="D57" s="26" t="s">
         <v>91</v>
@@ -4371,118 +4377,68 @@
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="J57" s="1"/>
+        <v>170</v>
+      </c>
     </row>
     <row r="58" spans="2:10" hidden="1">
       <c r="B58" s="12" t="s">
         <v>113</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>96</v>
       </c>
       <c r="F58" s="26">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="J58" s="1"/>
+        <v>170</v>
+      </c>
     </row>
     <row r="59" spans="2:10" hidden="1">
       <c r="B59" s="12" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F59" s="26">
         <v>0.75</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" hidden="1">
-      <c r="B60" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F60" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" hidden="1">
-      <c r="B61" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F61" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H61" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="プロト"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="B2:H59" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <filters>
-        <filter val="作業中"/>
-        <filter val="未着手"/>
+        <filter val="完了"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D61" xr:uid="{454E7D05-2AAB-4E64-A8B3-AF0965AEE79C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D59" xr:uid="{454E7D05-2AAB-4E64-A8B3-AF0965AEE79C}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E61" xr:uid="{562FCF84-6947-4222-9C48-5F079C4953DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E59" xr:uid="{562FCF84-6947-4222-9C48-5F079C4953DE}">
       <formula1>"プロト,α,β,マスター"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H61" xr:uid="{314D6C1B-1D5B-46EA-8722-41E45A851746}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H59" xr:uid="{314D6C1B-1D5B-46EA-8722-41E45A851746}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4534,6 +4490,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -4776,15 +4741,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
@@ -4797,6 +4753,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4813,12 +4777,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SHOTMAN/末原進捗コスト表.xlsx
+++ b/SHOTMAN/末原進捗コスト表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEXTs\OneDrive\ドキュメント\SHOTMAN\SHOTMAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7706EC9-3D64-4382-9E78-74276DEB3DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29804C87-C775-4242-AB04-3F17D98FB564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4215" yWindow="1845" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="マスタ" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">アルファ!$B$2:$H$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">アルファ!$B$2:$G$58</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="175">
   <si>
     <t>アルファ</t>
     <phoneticPr fontId="1"/>
@@ -746,22 +746,6 @@
     <t>弾</t>
     <rPh sb="0" eb="1">
       <t>タマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>球と球の当たり判定</t>
-    <rPh sb="0" eb="1">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1311,7 +1295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1350,16 +1334,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1735,11 +1715,11 @@
       </c>
       <c r="J4" s="2">
         <f ca="1">NETWORKDAYS(J5,J6)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K4" s="3">
         <f ca="1" xml:space="preserve"> J3 / J4</f>
-        <v>3.7037037037037035E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1783,7 +1763,7 @@
       </c>
       <c r="J6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45635</v>
+        <v>45640</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1848,11 +1828,11 @@
       </c>
       <c r="K9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L9" s="3">
         <f ca="1">($J$2 - $J$3) / K9</f>
-        <v>10.3</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1879,11 +1859,11 @@
       </c>
       <c r="K10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L10" s="3">
         <f ca="1">($J$2 - $J$3) / K10</f>
-        <v>3.4333333333333331</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1910,11 +1890,11 @@
       </c>
       <c r="K11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L11" s="3">
         <f ca="1">($J$2 - $J$3) / K11</f>
-        <v>2.5121951219512195</v>
+        <v>2.8611111111111112</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2976,8 +2956,8 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <f>SUM(アルファ!F3:F59)</f>
-        <v>39.25</v>
+        <f>SUM(アルファ!F3:F58)</f>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -2985,8 +2965,8 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <f>SUMIF(アルファ!H3:H59,"完了",アルファ!F3:F59)</f>
-        <v>2.25</v>
+        <f>SUMIF(アルファ!G3:G58,"完了",アルファ!F3:F58)</f>
+        <v>2.5</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -2998,11 +2978,11 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
-        <v>8.3333333333333329E-2</v>
+        <v>8.0645161290322578E-2</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -3020,7 +3000,7 @@
       </c>
       <c r="C6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45635</v>
+        <v>45640</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -3041,11 +3021,11 @@
       </c>
       <c r="D9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>3.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -3058,11 +3038,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>1.2333333333333334</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -3075,11 +3055,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$2 - $C$3) / D11</f>
-        <v>0.90243902439024393</v>
+        <v>1.0138888888888888</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -3141,27 +3121,27 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3173,10 +3153,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="B2:J59"/>
+  <dimension ref="B2:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3187,47 +3167,43 @@
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="7.5" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
-      <c r="B2" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="30" t="s">
+    <row r="2" spans="2:9">
+      <c r="B2" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2">
+      <c r="F2" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2">
         <f>SUBTOTAL(9,F:F)</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" hidden="1">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" hidden="1">
       <c r="B3" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>90</v>
@@ -3238,17 +3214,16 @@
       <c r="F3" s="26">
         <v>1.5</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" hidden="1">
+      <c r="G3" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" hidden="1">
       <c r="B4" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>90</v>
@@ -3259,12 +3234,11 @@
       <c r="F4" s="26">
         <v>3</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" hidden="1">
+      <c r="G4" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" hidden="1">
       <c r="B5" s="12" t="s">
         <v>101</v>
       </c>
@@ -3280,12 +3254,11 @@
       <c r="F5" s="26">
         <v>0.25</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" hidden="1">
+      <c r="G5" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" hidden="1">
       <c r="B6" s="12" t="s">
         <v>101</v>
       </c>
@@ -3301,12 +3274,11 @@
       <c r="F6" s="26">
         <v>0.25</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" hidden="1">
+      <c r="G6" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" hidden="1">
       <c r="B7" s="12" t="s">
         <v>101</v>
       </c>
@@ -3322,12 +3294,11 @@
       <c r="F7" s="26">
         <v>0.25</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="G7" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" hidden="1">
       <c r="B8" s="12" t="s">
         <v>101</v>
       </c>
@@ -3343,12 +3314,11 @@
       <c r="F8" s="26">
         <v>0.25</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" hidden="1">
+      <c r="G8" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" hidden="1">
       <c r="B9" s="12" t="s">
         <v>101</v>
       </c>
@@ -3364,12 +3334,11 @@
       <c r="F9" s="26">
         <v>0.5</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" hidden="1">
+      <c r="G9" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" hidden="1">
       <c r="B10" s="12" t="s">
         <v>101</v>
       </c>
@@ -3380,17 +3349,16 @@
         <v>90</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F10" s="26">
         <v>0.75</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" hidden="1">
+      <c r="G10" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" hidden="1">
       <c r="B11" s="12" t="s">
         <v>101</v>
       </c>
@@ -3406,12 +3374,11 @@
       <c r="F11" s="26">
         <v>0.5</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" hidden="1">
+      <c r="G11" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" hidden="1">
       <c r="B12" s="12" t="s">
         <v>102</v>
       </c>
@@ -3427,12 +3394,11 @@
       <c r="F12" s="26">
         <v>0.25</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="28" t="s">
+      <c r="G12" s="26" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:9">
       <c r="B13" s="12" t="s">
         <v>102</v>
       </c>
@@ -3446,14 +3412,13 @@
         <v>94</v>
       </c>
       <c r="F13" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" hidden="1">
+        <v>1.5</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="12" t="s">
         <v>102</v>
       </c>
@@ -3469,14 +3434,13 @@
       <c r="F14" s="26">
         <v>1.5</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" hidden="1">
+      <c r="G14" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" hidden="1">
       <c r="B15" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>126</v>
@@ -3488,14 +3452,13 @@
         <v>94</v>
       </c>
       <c r="F15" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="26" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="26" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:9" hidden="1">
       <c r="B16" s="12" t="s">
         <v>103</v>
       </c>
@@ -3511,12 +3474,11 @@
       <c r="F16" s="26">
         <v>0.25</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="G16" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" hidden="1">
       <c r="B17" s="12" t="s">
         <v>103</v>
       </c>
@@ -3532,12 +3494,11 @@
       <c r="F17" s="26">
         <v>0.25</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="G17" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" hidden="1">
       <c r="B18" s="12" t="s">
         <v>103</v>
       </c>
@@ -3553,12 +3514,11 @@
       <c r="F18" s="26">
         <v>0.25</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="G18" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" hidden="1">
       <c r="B19" s="12" t="s">
         <v>103</v>
       </c>
@@ -3574,12 +3534,11 @@
       <c r="F19" s="26">
         <v>0.25</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="G19" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" hidden="1">
       <c r="B20" s="12" t="s">
         <v>103</v>
       </c>
@@ -3595,12 +3554,11 @@
       <c r="F20" s="26">
         <v>0.25</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="G20" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" hidden="1">
       <c r="B21" s="12" t="s">
         <v>103</v>
       </c>
@@ -3611,17 +3569,16 @@
         <v>90</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F21" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" hidden="1">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" hidden="1">
       <c r="B22" s="12" t="s">
         <v>103</v>
       </c>
@@ -3629,20 +3586,19 @@
         <v>133</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F22" s="26">
         <v>0.5</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" hidden="1">
+      <c r="G22" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" hidden="1">
       <c r="B23" s="12" t="s">
         <v>103</v>
       </c>
@@ -3650,20 +3606,19 @@
         <v>134</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F23" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="26" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="G23" s="26" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:7" hidden="1">
       <c r="B24" s="12" t="s">
         <v>103</v>
       </c>
@@ -3679,17 +3634,16 @@
       <c r="F24" s="26">
         <v>0.25</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" hidden="1">
+      <c r="G24" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>90</v>
@@ -3700,12 +3654,11 @@
       <c r="F25" s="26">
         <v>0.25</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" hidden="1">
+      <c r="G25" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="12" t="s">
         <v>104</v>
       </c>
@@ -3721,17 +3674,16 @@
       <c r="F26" s="26">
         <v>0.25</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" hidden="1">
+      <c r="G26" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="12" t="s">
         <v>104</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>90</v>
@@ -3740,19 +3692,18 @@
         <v>94</v>
       </c>
       <c r="F27" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" hidden="1">
+        <v>1.25</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="12" t="s">
         <v>104</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>90</v>
@@ -3761,19 +3712,18 @@
         <v>94</v>
       </c>
       <c r="F28" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" hidden="1">
+        <v>0.25</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>90</v>
@@ -3782,19 +3732,18 @@
         <v>94</v>
       </c>
       <c r="F29" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" hidden="1">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>90</v>
@@ -3805,17 +3754,16 @@
       <c r="F30" s="26">
         <v>0.5</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" hidden="1">
+      <c r="G30" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>90</v>
@@ -3826,17 +3774,16 @@
       <c r="F31" s="26">
         <v>0.5</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" hidden="1">
+      <c r="G31" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32" s="12" t="s">
         <v>106</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>90</v>
@@ -3847,17 +3794,16 @@
       <c r="F32" s="26">
         <v>0.5</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" hidden="1">
+      <c r="G32" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>90</v>
@@ -3866,35 +3812,33 @@
         <v>94</v>
       </c>
       <c r="F33" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" hidden="1">
+        <v>0.25</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" hidden="1">
       <c r="B34" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>90</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F34" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" hidden="1">
+        <v>0.75</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" s="12" t="s">
         <v>107</v>
       </c>
@@ -3905,17 +3849,16 @@
         <v>90</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F35" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" hidden="1">
+        <v>0.25</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" hidden="1">
       <c r="B36" s="12" t="s">
         <v>107</v>
       </c>
@@ -3926,17 +3869,16 @@
         <v>90</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F36" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" hidden="1">
+        <v>0.75</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" hidden="1">
       <c r="B37" s="12" t="s">
         <v>107</v>
       </c>
@@ -3950,16 +3892,15 @@
         <v>95</v>
       </c>
       <c r="F37" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" hidden="1">
+        <v>0.25</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" hidden="1">
       <c r="B38" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>141</v>
@@ -3971,14 +3912,13 @@
         <v>95</v>
       </c>
       <c r="F38" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" hidden="1">
+        <v>0.75</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" hidden="1">
       <c r="B39" s="12" t="s">
         <v>108</v>
       </c>
@@ -3986,41 +3926,39 @@
         <v>142</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F39" s="26">
         <v>0.75</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" hidden="1">
+      <c r="G39" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F40" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" hidden="1">
+        <v>2.25</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
       <c r="B41" s="12" t="s">
         <v>109</v>
       </c>
@@ -4036,12 +3974,11 @@
       <c r="F41" s="26">
         <v>2.25</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" hidden="1">
+      <c r="G41" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" s="12" t="s">
         <v>109</v>
       </c>
@@ -4055,16 +3992,15 @@
         <v>94</v>
       </c>
       <c r="F42" s="26">
-        <v>2.25</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" hidden="1">
+        <v>0.75</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" hidden="1">
       <c r="B43" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>146</v>
@@ -4073,22 +4009,21 @@
         <v>90</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F43" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" hidden="1">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" hidden="1">
       <c r="B44" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D44" s="26" t="s">
         <v>90</v>
@@ -4099,33 +4034,31 @@
       <c r="F44" s="26">
         <v>0.5</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" hidden="1">
+      <c r="G44" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" hidden="1">
       <c r="B45" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F45" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" hidden="1">
+        <v>0.75</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" hidden="1">
       <c r="B46" s="12" t="s">
         <v>110</v>
       </c>
@@ -4133,7 +4066,7 @@
         <v>148</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E46" s="26" t="s">
         <v>96</v>
@@ -4141,14 +4074,13 @@
       <c r="F46" s="26">
         <v>0.75</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" hidden="1">
+      <c r="G46" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" hidden="1">
       <c r="B47" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>149</v>
@@ -4157,17 +4089,16 @@
         <v>90</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F47" s="26">
         <v>0.75</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" hidden="1">
+      <c r="G47" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" hidden="1">
       <c r="B48" s="12" t="s">
         <v>111</v>
       </c>
@@ -4181,14 +4112,13 @@
         <v>95</v>
       </c>
       <c r="F48" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" hidden="1">
+        <v>1.5</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" hidden="1">
       <c r="B49" s="12" t="s">
         <v>111</v>
       </c>
@@ -4199,19 +4129,18 @@
         <v>90</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F49" s="26">
         <v>1.5</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" hidden="1">
+      <c r="G49" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" hidden="1">
       <c r="B50" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>152</v>
@@ -4220,17 +4149,16 @@
         <v>90</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F50" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" hidden="1">
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" hidden="1">
       <c r="B51" s="12" t="s">
         <v>112</v>
       </c>
@@ -4246,12 +4174,11 @@
       <c r="F51" s="26">
         <v>0.5</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" hidden="1">
+      <c r="G51" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" hidden="1">
       <c r="B52" s="12" t="s">
         <v>112</v>
       </c>
@@ -4267,55 +4194,53 @@
       <c r="F52" s="26">
         <v>0.5</v>
       </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" hidden="1">
+      <c r="G52" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" hidden="1">
       <c r="B53" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="27">
+        <v>1.25</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="2:9" hidden="1">
+      <c r="B54" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D53" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F53" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" hidden="1">
-      <c r="B54" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" s="27" t="s">
+      <c r="D54" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="27">
-        <v>1.25</v>
-      </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="2:10" hidden="1">
+      <c r="F54" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="2:9" hidden="1">
       <c r="B55" s="12" t="s">
         <v>113</v>
       </c>
@@ -4329,20 +4254,19 @@
         <v>96</v>
       </c>
       <c r="F55" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="2:10" hidden="1">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="2:9" hidden="1">
       <c r="B56" s="12" t="s">
         <v>113</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="D56" s="26" t="s">
         <v>91</v>
@@ -4351,23 +4275,21 @@
         <v>96</v>
       </c>
       <c r="F56" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="2:10" hidden="1">
+        <v>0.75</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" hidden="1">
       <c r="B57" s="12" t="s">
         <v>113</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E57" s="26" t="s">
         <v>96</v>
@@ -4375,70 +4297,53 @@
       <c r="F57" s="26">
         <v>0.75</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" hidden="1">
+      <c r="G57" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" hidden="1">
       <c r="B58" s="12" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="D58" s="26" t="s">
         <v>90</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F58" s="26">
         <v>0.75</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" hidden="1">
-      <c r="B59" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F59" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="26" t="s">
-        <v>170</v>
+      <c r="G58" s="26" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H59" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
+  <autoFilter ref="B2:G58" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
       <filters>
-        <filter val="完了"/>
+        <filter val="プロト"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="作業中"/>
+        <filter val="未着手"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D59" xr:uid="{454E7D05-2AAB-4E64-A8B3-AF0965AEE79C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D58" xr:uid="{454E7D05-2AAB-4E64-A8B3-AF0965AEE79C}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E59" xr:uid="{562FCF84-6947-4222-9C48-5F079C4953DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E58" xr:uid="{562FCF84-6947-4222-9C48-5F079C4953DE}">
       <formula1>"プロト,α,β,マスター"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H59" xr:uid="{314D6C1B-1D5B-46EA-8722-41E45A851746}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G58" xr:uid="{314D6C1B-1D5B-46EA-8722-41E45A851746}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4490,15 +4395,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -4741,6 +4637,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
@@ -4753,14 +4658,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4777,4 +4674,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SHOTMAN/末原進捗コスト表.xlsx
+++ b/SHOTMAN/末原進捗コスト表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEXTs\OneDrive\ドキュメント\SHOTMAN\SHOTMAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447006\Documents\GitHub\SHOTMAN\SHOTMAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29804C87-C775-4242-AB04-3F17D98FB564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C07900-E3C5-4DFF-A4CE-F0D09E0BEDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="1845" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="240" windowWidth="22845" windowHeight="14010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1125元データ" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="マスタ" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">アルファ!$B$2:$G$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">アルファ!$B$2:$G$55</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="171">
   <si>
     <t>アルファ</t>
     <phoneticPr fontId="1"/>
@@ -683,9 +683,6 @@
     <t>ボス1</t>
   </si>
   <si>
-    <t>ステージギミック</t>
-  </si>
-  <si>
     <t>マップ</t>
   </si>
   <si>
@@ -875,21 +872,6 @@
     <t>死亡演出</t>
     <rPh sb="0" eb="4">
       <t>シボウエンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ギミック1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ギミック2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップスクロール(生成)</t>
-    <rPh sb="9" eb="11">
-      <t>セイセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1715,11 +1697,11 @@
       </c>
       <c r="J4" s="2">
         <f ca="1">NETWORKDAYS(J5,J6)</f>
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="K4" s="3">
         <f ca="1" xml:space="preserve"> J3 / J4</f>
-        <v>3.2258064516129031E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1763,7 +1745,7 @@
       </c>
       <c r="J6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45640</v>
+        <v>45666</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1828,11 +1810,11 @@
       </c>
       <c r="K9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="L9" s="3">
         <f ca="1">($J$2 - $J$3) / K9</f>
-        <v>20.6</v>
+        <v>-6.8666666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1859,11 +1841,11 @@
       </c>
       <c r="K10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),J10)</f>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="L10" s="3">
         <f ca="1">($J$2 - $J$3) / K10</f>
-        <v>4.12</v>
+        <v>14.714285714285714</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1890,11 +1872,11 @@
       </c>
       <c r="K11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),J11)</f>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L11" s="3">
         <f ca="1">($J$2 - $J$3) / K11</f>
-        <v>2.8611111111111112</v>
+        <v>5.7222222222222223</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2956,8 +2938,8 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <f>SUM(アルファ!F3:F58)</f>
-        <v>39</v>
+        <f>SUM(アルファ!F3:F55)</f>
+        <v>35.25</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -2965,7 +2947,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <f>SUMIF(アルファ!G3:G58,"完了",アルファ!F3:F58)</f>
+        <f>SUMIF(アルファ!G3:G55,"完了",アルファ!F3:F55)</f>
         <v>2.5</v>
       </c>
       <c r="D3" t="s">
@@ -2978,11 +2960,11 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
-        <v>8.0645161290322578E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -3000,7 +2982,7 @@
       </c>
       <c r="C6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45640</v>
+        <v>45666</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -3021,11 +3003,11 @@
       </c>
       <c r="D9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>7.3</v>
+        <v>-2.1833333333333331</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -3038,11 +3020,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>1.46</v>
+        <v>4.6785714285714288</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -3055,11 +3037,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$2 - $C$3) / D11</f>
-        <v>1.0138888888888888</v>
+        <v>1.8194444444444444</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -3121,27 +3103,27 @@
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3152,11 +3134,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B2:I58"/>
+  <dimension ref="B2:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3176,7 +3157,7 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="28" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>0</v>
@@ -3188,62 +3169,62 @@
         <v>93</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I2">
         <f>SUBTOTAL(9,F:F)</f>
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" hidden="1">
+        <v>35.25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>90</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="26">
         <v>1.5</v>
       </c>
       <c r="G3" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" hidden="1">
-      <c r="B4" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="D4" s="26" t="s">
         <v>90</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" s="26">
         <v>3</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" hidden="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>90</v>
@@ -3255,15 +3236,15 @@
         <v>0.25</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>90</v>
@@ -3275,15 +3256,15 @@
         <v>0.25</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>90</v>
@@ -3295,15 +3276,15 @@
         <v>0.25</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>90</v>
@@ -3315,15 +3296,15 @@
         <v>0.25</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" hidden="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>90</v>
@@ -3335,15 +3316,15 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>90</v>
@@ -3355,15 +3336,15 @@
         <v>0.75</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" hidden="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>92</v>
@@ -3375,15 +3356,15 @@
         <v>0.5</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12" s="12" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>90</v>
@@ -3395,7 +3376,7 @@
         <v>0.25</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -3403,7 +3384,7 @@
         <v>102</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>90</v>
@@ -3415,7 +3396,7 @@
         <v>1.5</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -3423,7 +3404,7 @@
         <v>102</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>90</v>
@@ -3435,15 +3416,15 @@
         <v>1.5</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>90</v>
@@ -3455,15 +3436,15 @@
         <v>0.25</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" hidden="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>90</v>
@@ -3475,15 +3456,15 @@
         <v>0.25</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" hidden="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>90</v>
@@ -3495,15 +3476,15 @@
         <v>0.25</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" hidden="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>90</v>
@@ -3515,15 +3496,15 @@
         <v>0.25</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" hidden="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>90</v>
@@ -3535,15 +3516,15 @@
         <v>0.25</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" hidden="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>90</v>
@@ -3555,15 +3536,15 @@
         <v>0.25</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" hidden="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>90</v>
@@ -3575,15 +3556,15 @@
         <v>0.5</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>92</v>
@@ -3595,15 +3576,15 @@
         <v>0.5</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>90</v>
@@ -3615,15 +3596,15 @@
         <v>0.25</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" hidden="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>90</v>
@@ -3635,7 +3616,7 @@
         <v>0.25</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -3643,7 +3624,7 @@
         <v>104</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>90</v>
@@ -3655,7 +3636,7 @@
         <v>0.25</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -3663,7 +3644,7 @@
         <v>104</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>90</v>
@@ -3675,7 +3656,7 @@
         <v>0.25</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="2:7">
@@ -3683,7 +3664,7 @@
         <v>104</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>90</v>
@@ -3695,7 +3676,7 @@
         <v>1.25</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -3703,7 +3684,7 @@
         <v>104</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>90</v>
@@ -3715,7 +3696,7 @@
         <v>0.25</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -3723,7 +3704,7 @@
         <v>105</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>90</v>
@@ -3735,7 +3716,7 @@
         <v>0.5</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="2:7">
@@ -3743,7 +3724,7 @@
         <v>105</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>90</v>
@@ -3755,7 +3736,7 @@
         <v>0.5</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -3763,7 +3744,7 @@
         <v>106</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>90</v>
@@ -3775,7 +3756,7 @@
         <v>0.5</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="2:7">
@@ -3783,7 +3764,7 @@
         <v>106</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>90</v>
@@ -3795,7 +3776,7 @@
         <v>0.5</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -3803,7 +3784,7 @@
         <v>107</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>90</v>
@@ -3815,15 +3796,15 @@
         <v>0.25</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>90</v>
@@ -3835,7 +3816,7 @@
         <v>0.75</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -3843,7 +3824,7 @@
         <v>107</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>90</v>
@@ -3855,15 +3836,15 @@
         <v>0.25</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D36" s="26" t="s">
         <v>90</v>
@@ -3875,15 +3856,15 @@
         <v>0.75</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>90</v>
@@ -3895,47 +3876,47 @@
         <v>0.25</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="12" t="s">
         <v>108</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>90</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F38" s="26">
-        <v>0.75</v>
+        <v>2.25</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" hidden="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" s="12" t="s">
         <v>108</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F39" s="26">
         <v>0.75</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -3943,19 +3924,19 @@
         <v>109</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" s="26" t="s">
         <v>90</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F40" s="26">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -3963,19 +3944,19 @@
         <v>109</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D41" s="26" t="s">
         <v>90</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F41" s="26">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="2:7">
@@ -3983,47 +3964,47 @@
         <v>109</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F42" s="26">
         <v>0.75</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D43" s="26" t="s">
         <v>90</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F43" s="26">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
       <c r="B44" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D44" s="26" t="s">
         <v>90</v>
@@ -4032,38 +4013,38 @@
         <v>95</v>
       </c>
       <c r="F44" s="26">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
       <c r="B45" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F45" s="26">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
       <c r="B46" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46" s="26" t="s">
         <v>90</v>
@@ -4072,18 +4053,18 @@
         <v>96</v>
       </c>
       <c r="F46" s="26">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
       <c r="B47" s="12" t="s">
         <v>111</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="26" t="s">
         <v>90</v>
@@ -4092,18 +4073,18 @@
         <v>95</v>
       </c>
       <c r="F47" s="26">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
       <c r="B48" s="12" t="s">
         <v>111</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="26" t="s">
         <v>90</v>
@@ -4112,122 +4093,124 @@
         <v>95</v>
       </c>
       <c r="F48" s="26">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
       <c r="B49" s="12" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>90</v>
       </c>
       <c r="E49" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="F49" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" hidden="1">
-      <c r="B50" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F50" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="G50" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" hidden="1">
+      <c r="F50" s="27">
+        <v>1.25</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="2:9">
       <c r="B51" s="12" t="s">
         <v>112</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F51" s="26">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" hidden="1">
+        <v>165</v>
+      </c>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="2:9">
       <c r="B52" s="12" t="s">
         <v>112</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F52" s="26">
         <v>0.5</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" hidden="1">
+        <v>165</v>
+      </c>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="2:9">
       <c r="B53" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E53" s="27" t="s">
+      <c r="C53" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F53" s="27">
-        <v>1.25</v>
-      </c>
-      <c r="G53" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" hidden="1">
+      <c r="F53" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
       <c r="B54" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="D54" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E54" s="26" t="s">
         <v>96</v>
@@ -4236,114 +4219,40 @@
         <v>0.75</v>
       </c>
       <c r="G54" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" hidden="1">
-      <c r="B55" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="D55" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F55" s="26">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" hidden="1">
-      <c r="B56" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F56" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="G56" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" hidden="1">
-      <c r="B57" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F57" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="G57" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" hidden="1">
-      <c r="B58" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F58" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G58" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="プロト"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="作業中"/>
-        <filter val="未着手"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:G55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D58" xr:uid="{454E7D05-2AAB-4E64-A8B3-AF0965AEE79C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D55" xr:uid="{454E7D05-2AAB-4E64-A8B3-AF0965AEE79C}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E58" xr:uid="{562FCF84-6947-4222-9C48-5F079C4953DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E55" xr:uid="{562FCF84-6947-4222-9C48-5F079C4953DE}">
       <formula1>"プロト,α,β,マスター"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G58" xr:uid="{314D6C1B-1D5B-46EA-8722-41E45A851746}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G55" xr:uid="{314D6C1B-1D5B-46EA-8722-41E45A851746}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4383,18 +4292,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -4637,6 +4534,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4647,17 +4556,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4676,6 +4574,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
